--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Alma Mater Studiorum Università di Bologna\teaching-bigdata\AA2324-unibo-bigdataandcloudplatforms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Alma Mater Studiorum Università di Bologna\teaching-bigdata\AA2425-unibo-bigdataandcloudplatforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDA03C-5960-4692-996D-6DF5A982F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
   <si>
     <t>Lab</t>
   </si>
@@ -127,15 +127,6 @@
     <t>Aula 2.12, 4 (9-13)</t>
   </si>
   <si>
-    <t>LAB. 3.3, 3h (9-12)</t>
-  </si>
-  <si>
-    <t>AULA 2.6, 2h (9-11)</t>
-  </si>
-  <si>
-    <t>AULA 3.1, 2h (11-13)</t>
-  </si>
-  <si>
     <t>Seminar: Data Reply</t>
   </si>
   <si>
@@ -188,13 +179,28 @@
   </si>
   <si>
     <t>Check the data management and data mesh books</t>
+  </si>
+  <si>
+    <t>AULA 2.4, 2h (9-11)</t>
+  </si>
+  <si>
+    <t>LAB. 3.3, 2h (11-13)</t>
+  </si>
+  <si>
+    <t>Duration (old)</t>
+  </si>
+  <si>
+    <t>Topics (old)</t>
+  </si>
+  <si>
+    <t>Data pipelines on cloud (Storage) + Data pipelines on cloud (Computing) + Migration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +252,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -286,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,12 +352,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +361,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,24 +671,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I15" sqref="A9:I15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -683,513 +706,650 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45244</v>
+        <v>45580</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>TEXT(WEEKDAY(A2), "ddd")</f>
         <v>Tue</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10">
-        <f>SUM($E$2:E2)/$E$21</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="17">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10">
+        <f>SUM($E$2:E2)/$E$23</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>45245</v>
+        <f>A2</f>
+        <v>45580</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B19" si="0">TEXT(WEEKDAY(A3), "ddd")</f>
-        <v>Wed</v>
+        <f t="shared" ref="B3:B21" si="0">TEXT(WEEKDAY(A3), "ddd")</f>
+        <v>Tue</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="10">
+        <f>SUM($E$2:E3)/$E$23</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <f>A3+7</f>
+        <v>45587</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10">
+        <f>SUM($E$2:E4)/$E$23</f>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <f>A4</f>
+        <v>45587</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10">
+        <f>SUM($E$2:E5)/$E$23</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="10">
-        <f>SUM($E$2:E3)/$E$21</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <f>A5+7</f>
+        <v>45594</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <f>A3</f>
-        <v>45245</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10">
-        <f>SUM($E$2:E4)/$E$21</f>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <f>A2+7</f>
-        <v>45251</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>3</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="10">
-        <f>SUM($E$2:E5)/$E$21</f>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <f>SUM($E$2:E6)/$E$23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <f>A3+7</f>
-        <v>45252</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <f>SUM($E$2:E6)/$E$21</f>
-        <v>0.4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f>A6</f>
-        <v>45252</v>
+        <v>45594</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10">
-        <f>SUM($E$2:E7)/$E$21</f>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="10">
+        <f>SUM($E$2:E7)/$E$23</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <f>A7+7</f>
+        <v>45601</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10">
+        <f>SUM($E$2:E8)/$E$23</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f>A5+7</f>
-        <v>45258</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <f>A8</f>
+        <v>45601</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10">
+        <f>SUM($E$2:E9)/$E$23</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <f>A9+7</f>
+        <v>45608</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUM($E$2:E10)/$E$23</f>
+        <v>0.6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <f>A10</f>
+        <v>45608</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="17">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM($E$2:E8)/$E$21</f>
-        <v>0.56666666666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f>A6+7</f>
-        <v>45259</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10">
-        <f>SUM($E$2:E9)/$E$21</f>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f>A9</f>
-        <v>45259</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM($E$2:E10)/$E$21</f>
-        <v>0.7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f>A8+7</f>
-        <v>45265</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="17">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="10">
-        <f>SUM($E$2:E11)/$E$21</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="10">
+        <f>SUM($E$2:E11)/$E$23</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>A9+7</f>
-        <v>45266</v>
+        <f>A11+7</f>
+        <v>45615</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM($E$2:E12)/$E$21</f>
-        <v>0.8666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="10">
+        <f>SUM($E$2:E12)/$E$23</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f>A12</f>
-        <v>45266</v>
+        <v>45615</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>2</v>
-      </c>
-      <c r="F13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="10">
+        <f>SUM($E$2:E13)/$E$23</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <f>A13+7</f>
+        <v>45622</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="10">
+        <f>SUM($E$2:E14)/$E$23</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="10">
-        <f>SUM($E$2:E13)/$E$21</f>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <f>A14</f>
+        <v>45622</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="10">
+        <f>SUM($E$2:E15)/$E$23</f>
         <v>0.93333333333333335</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f>A11+7</f>
-        <v>45272</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="17">
-        <v>3</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM($E$2:E14)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <f>A15+7</f>
+        <v>45629</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="10">
+        <f>SUM($E$2:E16)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <f>A16</f>
+        <v>45629</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f>A12+7</f>
-        <v>45273</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="10">
-        <f>SUM($E$2:E15)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f>A15</f>
-        <v>45273</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10">
-        <f>SUM($E$2:E16)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f>A14+7</f>
-        <v>45279</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM($E$2:E17)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="10">
+        <f>SUM($E$2:E17)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>A15+7</f>
-        <v>45280</v>
+        <f>A17+7</f>
+        <v>45636</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10">
-        <f>SUM($E$2:E18)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="10">
+        <f>SUM($E$2:E18)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f>A18</f>
-        <v>45280</v>
+        <v>45636</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="10">
-        <f>SUM($E$2:E19)/$E$21</f>
-        <v>1.0333333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2">
-        <f>SUM(E2:E19)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="10">
+        <f>SUM($E$2:E19)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <f>A19+7</f>
+        <v>45643</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <f>A20</f>
+        <v>45643</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SUM(E2:E21)</f>
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D21:D1048576 E21 D1:D19">
+  <conditionalFormatting sqref="E23 D23:D1048576 F1 D1:D19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
@@ -1207,7 +1367,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{922831C9-06CF-4175-BF25-76682238DB37}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{922831C9-06CF-4175-BF25-76682238DB37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
@@ -1222,19 +1382,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="9"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44860</v>
       </c>
@@ -1277,18 +1437,18 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44860</v>
       </c>
@@ -1305,14 +1465,14 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44867</v>
       </c>
@@ -1338,7 +1498,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44867</v>
       </c>
@@ -1366,7 +1526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44874</v>
       </c>
@@ -1392,7 +1552,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>44874</v>
       </c>
@@ -1420,7 +1580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44881</v>
       </c>
@@ -1446,7 +1606,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44881</v>
       </c>
@@ -1474,7 +1634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>44888</v>
       </c>
@@ -1499,7 +1659,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>44888</v>
       </c>
@@ -1524,7 +1684,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>44893</v>
       </c>
@@ -1550,7 +1710,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>44895</v>
       </c>
@@ -1574,7 +1734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>44895</v>
       </c>
@@ -1596,7 +1756,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>44900</v>
       </c>
@@ -1622,7 +1782,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>44902</v>
       </c>
@@ -1648,7 +1808,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>44907</v>
       </c>
@@ -1674,7 +1834,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Alma Mater Studiorum Università di Bologna\teaching-bigdata\AA2425-unibo-bigdataandcloudplatforms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EE2CFA-F9C1-4647-BD60-2CAD3F0F8DEC}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
   <si>
     <t>Lab</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Data pipelines on cloud (Storage) + Data pipelines on cloud (Computing) + Migration</t>
+  </si>
+  <si>
+    <t>Towards data platforms</t>
+  </si>
+  <si>
+    <t>Towards data platforms, NoSQL database</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,30 +361,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -674,20 +673,20 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -718,7 +717,7 @@
       <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -739,13 +738,13 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="17">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="10">
@@ -771,13 +770,13 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>17</v>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="10">
@@ -806,13 +805,13 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>32</v>
+      <c r="F4" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="17">
         <v>2</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="10">
@@ -841,13 +840,13 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="17">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="10">
@@ -876,13 +875,13 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="17">
         <v>2</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="10">
@@ -911,13 +910,13 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="17">
         <v>2</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="10">
@@ -943,13 +942,13 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="17">
         <v>3</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="10">
@@ -975,13 +974,13 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="10">
@@ -1010,13 +1009,13 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="17">
         <v>2</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="10">
@@ -1039,19 +1038,19 @@
       <c r="C11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17">
         <v>3</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="10">
@@ -1077,13 +1076,13 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="17">
         <v>2</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="10">
@@ -1109,13 +1108,13 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="10">
@@ -1144,7 +1143,7 @@
       <c r="G14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="10">
@@ -1173,7 +1172,7 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1206,7 +1205,7 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1349,11 +1348,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E23 D23:D1048576 F1 D1:D19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Theory"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1364,6 +1358,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 D1:D19 E23 D23:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Theory"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1385,10 +1384,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="9"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
@@ -1437,14 +1436,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1465,12 +1464,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -1850,11 +1849,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Theory"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1867,6 +1861,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Theory"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EE2CFA-F9C1-4647-BD60-2CAD3F0F8DEC}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F0E3F7-8820-4EB6-8501-C9A10E7FDEF2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <t>Towards data platforms</t>
   </si>
   <si>
-    <t>Towards data platforms, NoSQL database</t>
+    <t>LAB. 4.2, 3h (9-12)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,10 +380,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -673,23 +685,23 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,7 +733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45580</v>
       </c>
@@ -735,7 +747,7 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="24">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -752,7 +764,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>A2</f>
         <v>45580</v>
@@ -767,7 +779,7 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="24">
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -787,7 +799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f>A3+7</f>
         <v>45587</v>
@@ -802,11 +814,11 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="24">
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="17">
         <v>2</v>
@@ -822,23 +834,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f>A4</f>
-        <v>45587</v>
+        <f>A3+8</f>
+        <v>45588</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
+      <c r="E5" s="25">
+        <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>18</v>
@@ -851,20 +863,20 @@
       </c>
       <c r="I5" s="10">
         <f>SUM($E$2:E5)/$E$23</f>
-        <v>0.26666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>A5+7</f>
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -886,20 +898,20 @@
       </c>
       <c r="I6" s="10">
         <f>SUM($E$2:E6)/$E$23</f>
-        <v>0.33333333333333331</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>A6</f>
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -921,17 +933,17 @@
       </c>
       <c r="I7" s="10">
         <f>SUM($E$2:E7)/$E$23</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>A7+7</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>48</v>
@@ -953,17 +965,17 @@
       </c>
       <c r="I8" s="10">
         <f>SUM($E$2:E8)/$E$23</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f>A8</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -985,20 +997,20 @@
       </c>
       <c r="I9" s="10">
         <f>SUM($E$2:E9)/$E$23</f>
-        <v>0.53333333333333333</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+7</f>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
@@ -1020,20 +1032,20 @@
       </c>
       <c r="I10" s="10">
         <f>SUM($E$2:E10)/$E$23</f>
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>A10</f>
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
@@ -1055,17 +1067,17 @@
       </c>
       <c r="I11" s="10">
         <f>SUM($E$2:E11)/$E$23</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>A11+7</f>
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>48</v>
@@ -1087,17 +1099,17 @@
       </c>
       <c r="I12" s="10">
         <f>SUM($E$2:E12)/$E$23</f>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>A12</f>
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>49</v>
@@ -1119,17 +1131,17 @@
       </c>
       <c r="I13" s="10">
         <f>SUM($E$2:E13)/$E$23</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>A13+7</f>
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -1148,20 +1160,20 @@
       </c>
       <c r="I14" s="10">
         <f>SUM($E$2:E14)/$E$23</f>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f>A14</f>
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
@@ -1181,20 +1193,20 @@
       <c r="H15" s="13"/>
       <c r="I15" s="10">
         <f>SUM($E$2:E15)/$E$23</f>
-        <v>0.93333333333333335</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f>A15+7</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>48</v>
@@ -1214,17 +1226,17 @@
       <c r="H16" s="16"/>
       <c r="I16" s="10">
         <f>SUM($E$2:E16)/$E$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f>A16</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>49</v>
@@ -1239,17 +1251,17 @@
       <c r="H17" s="13"/>
       <c r="I17" s="10">
         <f>SUM($E$2:E17)/$E$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f>A17+7</f>
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -1264,17 +1276,17 @@
       <c r="H18" s="16"/>
       <c r="I18" s="10">
         <f>SUM($E$2:E18)/$E$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f>A18</f>
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
@@ -1289,17 +1301,17 @@
       <c r="H19" s="15"/>
       <c r="I19" s="10">
         <f>SUM($E$2:E19)/$E$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1.0333333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f>A19+7</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>48</v>
@@ -1311,14 +1323,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f>A20</f>
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>49</v>
@@ -1330,16 +1342,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E21)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1381,19 +1393,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="9"/>
+    <col min="4" max="4" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="9"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44860</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44860</v>
       </c>
@@ -1471,7 +1483,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44867</v>
       </c>
@@ -1497,7 +1509,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44867</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44874</v>
       </c>
@@ -1551,7 +1563,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44874</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44881</v>
       </c>
@@ -1605,7 +1617,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44881</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44888</v>
       </c>
@@ -1658,7 +1670,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44888</v>
       </c>
@@ -1683,7 +1695,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44893</v>
       </c>
@@ -1709,7 +1721,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44895</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44895</v>
       </c>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44900</v>
       </c>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44902</v>
       </c>
@@ -1807,7 +1819,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44907</v>
       </c>
@@ -1833,7 +1845,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F0E3F7-8820-4EB6-8501-C9A10E7FDEF2}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB01BA8B-836E-4664-82FA-03AF82D6EFBB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="5540" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>Lab</t>
   </si>
@@ -193,13 +193,22 @@
     <t>Topics (old)</t>
   </si>
   <si>
-    <t>Data pipelines on cloud (Storage) + Data pipelines on cloud (Computing) + Migration</t>
-  </si>
-  <si>
     <t>Towards data platforms</t>
   </si>
   <si>
     <t>LAB. 4.2, 3h (9-12)</t>
+  </si>
+  <si>
+    <t>Lab: from raw data to ML, data profiling and data provenance, Cloud and XaaS</t>
+  </si>
+  <si>
+    <t>Seminar: ICO</t>
+  </si>
+  <si>
+    <t>Seminar: LAIF</t>
+  </si>
+  <si>
+    <t>Migration + Data pipelines on cloud (Streaming)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,22 +383,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -685,23 +691,23 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,7 +739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45580</v>
       </c>
@@ -747,7 +753,7 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -764,7 +770,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <f>A2</f>
         <v>45580</v>
@@ -779,11 +785,11 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="17">
         <v>2</v>
@@ -799,7 +805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <f>A3+7</f>
         <v>45587</v>
@@ -814,11 +820,11 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="17">
         <v>2</v>
@@ -834,7 +840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f>A3+8</f>
         <v>45588</v>
@@ -844,16 +850,16 @@
         <v>Wed</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G5" s="17">
         <v>3</v>
@@ -869,14 +875,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>A5+7</f>
-        <v>45595</v>
+        <v>45601</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
+        <f>TEXT(WEEKDAY(A6), "ddd")</f>
+        <v>ddd</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -884,7 +889,7 @@
       <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -904,14 +909,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <f>A6</f>
-        <v>45595</v>
+        <v>45601</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -919,7 +924,7 @@
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="22">
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -936,14 +941,14 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <f>A7+7</f>
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>48</v>
@@ -951,7 +956,7 @@
       <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -968,26 +973,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <f>A8</f>
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
         <v>2</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
@@ -1003,14 +1008,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <f>A9+7</f>
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
@@ -1038,14 +1043,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <f>A10</f>
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
@@ -1057,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G11" s="17">
         <v>3</v>
@@ -1070,26 +1075,26 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <f>A11+7</f>
-        <v>45616</v>
+        <v>45622</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>1</v>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G12" s="17">
         <v>2</v>
@@ -1102,14 +1107,14 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <f>A12</f>
-        <v>45616</v>
+        <v>45622</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>49</v>
@@ -1120,8 +1125,8 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>30</v>
+      <c r="F13" t="s">
+        <v>56</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
@@ -1134,23 +1139,26 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <f>A13+7</f>
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="17">
         <v>3</v>
@@ -1166,14 +1174,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <f>A14</f>
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
@@ -1184,8 +1192,8 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1199,14 +1207,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <f>A15+7</f>
-        <v>45630</v>
+        <v>45636</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>48</v>
@@ -1229,14 +1237,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <f>A16</f>
-        <v>45630</v>
+        <v>45636</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>49</v>
@@ -1254,14 +1262,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f>A17+7</f>
-        <v>45637</v>
+        <v>45643</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -1279,14 +1287,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f>A18</f>
-        <v>45637</v>
+        <v>45643</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
@@ -1304,14 +1312,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <f>A19+7</f>
-        <v>45644</v>
+        <v>45650</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>48</v>
@@ -1323,14 +1331,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <f>A20</f>
-        <v>45644</v>
+        <v>45650</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>ddd</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>49</v>
@@ -1342,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 D1:D19 E23 D23:D1048576">
+  <conditionalFormatting sqref="F1 E23 D23:D1048576 D1:D19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
@@ -1393,19 +1401,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="9"/>
+    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="9"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44860</v>
       </c>
@@ -1448,18 +1456,18 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44860</v>
       </c>
@@ -1476,14 +1484,14 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44867</v>
       </c>
@@ -1509,7 +1517,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44867</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44874</v>
       </c>
@@ -1563,7 +1571,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>44874</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44881</v>
       </c>
@@ -1617,7 +1625,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44881</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>44888</v>
       </c>
@@ -1670,7 +1678,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>44888</v>
       </c>
@@ -1695,7 +1703,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>44893</v>
       </c>
@@ -1721,7 +1729,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>44895</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>44895</v>
       </c>
@@ -1767,7 +1775,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>44900</v>
       </c>
@@ -1793,7 +1801,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>44902</v>
       </c>
@@ -1819,7 +1827,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>44907</v>
       </c>
@@ -1845,7 +1853,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB01BA8B-836E-4664-82FA-03AF82D6EFBB}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3916EA2-2FD5-4C97-BF93-7F2C6C9C1C69}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="5540" windowWidth="28800" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <t>Lab</t>
   </si>
@@ -202,13 +202,16 @@
     <t>Lab: from raw data to ML, data profiling and data provenance, Cloud and XaaS</t>
   </si>
   <si>
-    <t>Seminar: ICO</t>
-  </si>
-  <si>
-    <t>Seminar: LAIF</t>
-  </si>
-  <si>
-    <t>Migration + Data pipelines on cloud (Streaming)</t>
+    <t>Data pipelines on cloud (Storage) + Data pipelines on cloud (Computing)</t>
+  </si>
+  <si>
+    <t>Seminar: LAIF (Briding AI and Cloud Platforms)</t>
+  </si>
+  <si>
+    <t>Seminar: IConsulting (Engineering Cloud Platforms with Lakehouse)</t>
+  </si>
+  <si>
+    <t>AULA 2.4, 2h (11-13)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -320,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +394,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,20 +706,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -723,7 +739,7 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -743,9 +759,9 @@
       <c r="A2" s="4">
         <v>45580</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>TEXT(WEEKDAY(A2), "ddd")</f>
-        <v>Tue</v>
+      <c r="B2" s="23">
+        <f>WEEKDAY(A2)-1</f>
+        <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>48</v>
@@ -756,7 +772,7 @@
       <c r="E2" s="22">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="17">
@@ -775,9 +791,9 @@
         <f>A2</f>
         <v>45580</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B21" si="0">TEXT(WEEKDAY(A3), "ddd")</f>
-        <v>Tue</v>
+      <c r="B3" s="23">
+        <f t="shared" ref="B3:B21" si="0">WEEKDAY(A3)-1</f>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
@@ -788,7 +804,7 @@
       <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="17">
@@ -810,9 +826,9 @@
         <f>A3+7</f>
         <v>45587</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
+      <c r="B4" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>48</v>
@@ -845,9 +861,9 @@
         <f>A3+8</f>
         <v>45588</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
+      <c r="B5" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>53</v>
@@ -879,9 +895,9 @@
       <c r="A6" s="4">
         <v>45601</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f>TEXT(WEEKDAY(A6), "ddd")</f>
-        <v>ddd</v>
+      <c r="B6" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>48</v>
@@ -914,9 +930,9 @@
         <f>A6</f>
         <v>45601</v>
       </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B7" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>49</v>
@@ -946,9 +962,9 @@
         <f>A7+7</f>
         <v>45608</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B8" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>48</v>
@@ -978,9 +994,9 @@
         <f>A8</f>
         <v>45608</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B9" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -1013,9 +1029,9 @@
         <f>A9+7</f>
         <v>45615</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B10" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
@@ -1023,11 +1039,11 @@
       <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="E10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="17">
         <v>2</v>
@@ -1048,9 +1064,9 @@
         <f>A10</f>
         <v>45615</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B11" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>49</v>
@@ -1058,11 +1074,11 @@
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="G11" s="17">
         <v>3</v>
@@ -1080,9 +1096,9 @@
         <f>A11+7</f>
         <v>45622</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B12" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>48</v>
@@ -1090,10 +1106,10 @@
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="22">
+        <v>2</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="17">
@@ -1112,9 +1128,9 @@
         <f>A12</f>
         <v>45622</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B13" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>49</v>
@@ -1122,12 +1138,10 @@
       <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
+      <c r="E13" s="22">
+        <v>2</v>
+      </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="17">
         <v>2</v>
       </c>
@@ -1144,9 +1158,9 @@
         <f>A13+7</f>
         <v>45629</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B14" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -1154,11 +1168,11 @@
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="G14" s="17">
         <v>3</v>
@@ -1179,22 +1193,20 @@
         <f>A14</f>
         <v>45629</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B15" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
+      <c r="E15" s="22">
+        <v>2</v>
+      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,9 +1224,9 @@
         <f>A15+7</f>
         <v>45636</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B16" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>48</v>
@@ -1242,14 +1254,16 @@
         <f>A16</f>
         <v>45636</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B17" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,14 +1276,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f>A17+7</f>
         <v>45643</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B18" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>48</v>
@@ -1287,14 +1301,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <f>A18</f>
         <v>45643</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B19" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>49</v>
@@ -1312,14 +1326,14 @@
         <v>1.0333333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <f>A19+7</f>
         <v>45650</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B20" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>48</v>
@@ -1331,14 +1345,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <f>A20</f>
         <v>45650</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ddd</v>
+      <c r="B21" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>49</v>
@@ -1368,6 +1382,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1398,7 +1416,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1456,14 +1474,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1484,12 +1502,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">

--- a/Program.xlsx
+++ b/Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-bigdataandcloudplatforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3916EA2-2FD5-4C97-BF93-7F2C6C9C1C69}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{F7F973B8-4F16-4EF1-8487-709103825833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6EFB66-5367-4513-9297-F271FA0E0136}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar AA 2324" sheetId="2" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +396,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -703,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FA0065-A3C8-4E4D-B5EC-36CCF9E12688}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1109,7 +1112,7 @@
       <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="17">
@@ -1141,7 +1144,7 @@
       <c r="E13" s="22">
         <v>2</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="17">
         <v>2</v>
       </c>
@@ -1171,7 +1174,7 @@
       <c r="E14" s="22">
         <v>2</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="17">
@@ -1206,7 +1209,7 @@
       <c r="E15" s="22">
         <v>2</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1231,21 +1234,18 @@
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>43</v>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="10">
-        <f>SUM($E$2:E16)/$E$23</f>
+        <f>SUM($E$2:E17)/$E$23</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
@@ -1261,11 +1261,14 @@
       <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1380,6 +1383,9 @@
       <c r="E23" s="1">
         <v>30</v>
       </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1398,7 +1404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1 E23 D23:D1048576 D1:D19">
+  <conditionalFormatting sqref="F1 E23 D23:D1048576 D1:D15 D17:D19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Theory"</formula>
     </cfRule>
@@ -1474,14 +1480,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10">
         <f>SUM($E$2:E2)/$E$18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1502,12 +1508,12 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="10">
         <f>SUM($E$2:E3)/$E$18</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
